--- a/modules/catdriver/tests/test_data/test_config_binary.xlsx
+++ b/modules/catdriver/tests/test_data/test_config_binary.xlsx
@@ -1,35 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Driver_Settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Churn Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary_outcome.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary_results.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outcome_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VariableName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">churned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satisfaction_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfaction Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic;Standard;Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support_contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levels_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing_strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rare_level_policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop_row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warn_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorical</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +168,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -171,10 +223,6 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -200,15 +248,12 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -234,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,215 +455,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Setting</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>analysis_name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Customer Churn Analysis</t>
-        </is>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>data_file</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>binary_outcome.csv</t>
-        </is>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>output_file</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>binary_results.xlsx</t>
-        </is>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>outcome_type</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>binary</t>
-        </is>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>VariableName</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>churned</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Customer Status</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>satisfaction_score</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Satisfaction Score</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>product_tier</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Product Tier</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Basic;Standard;Premium</t>
-        </is>
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>channel</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sales Channel</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>support_contacts</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Support Contacts</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/modules/catdriver/tests/test_data/test_config_binary.xlsx
+++ b/modules/catdriver/tests/test_data/test_config_binary.xlsx
@@ -1,155 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Driver_Settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">Setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analysis_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Churn Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binary_outcome.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binary_results.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outcome_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VariableName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">churned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">satisfaction_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satisfaction Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic;Standard;Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">support_contacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support Contacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levels_order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reference_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing_strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rare_level_policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drop_row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warn_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorical</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -168,12 +49,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -223,6 +172,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -248,12 +201,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -279,7 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,243 +410,368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Setting</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>analysis_name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test Binary Analysis</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>data_file</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_data.csv</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>output_file</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_results.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>outcome_type</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>min_sample_size</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>confidence_level</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>VariableName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Outcome Variable</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No;Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Age Group</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18-34;35-54;55+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Income Level</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Low;Medium;High</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>levels_order</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>reference_level</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>missing_strategy</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>rare_level_policy</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ordinal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18-34;35-54;55+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18-34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>missing_as_level</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>warn_only</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ordinal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Low;Medium;High</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>missing_as_level</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>warn_only</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>missing_as_level</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>warn_only</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>